--- a/biology/Botanique/Ribord/Ribord.xlsx
+++ b/biology/Botanique/Ribord/Ribord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En architecture navale, le ribord constitue les virures à la base de la coque d'un navire[1] aussi appelé œuvres vives ou bordé de carène.
-Les ribords sont situés au-dessus du galbord[2] lorsqu'ils existent. Lorsque les ribords ne sont pas plus épais que le reste du bordage, on parle de bordé de fond.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En architecture navale, le ribord constitue les virures à la base de la coque d'un navire aussi appelé œuvres vives ou bordé de carène.
+Les ribords sont situés au-dessus du galbord lorsqu'ils existent. Lorsque les ribords ne sont pas plus épais que le reste du bordage, on parle de bordé de fond.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme vient de l'ancien néerlandais rijbord signifiant "rang de bordage"[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme vient de l'ancien néerlandais rijbord signifiant "rang de bordage".
 </t>
         </is>
       </c>
